--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\optimizer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114CEB77-0827-4673-BD5D-66CBC37C46FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88257424-AC69-4D5F-9EE2-48E040A87893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="8625" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,6 +36,58 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>user</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{849870A3-8E41-4641-B411-6F515B8EB79F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>박동진 : value_range를 입력할 때, 행이름과, 열이름이 만나는 이 셀에서부터 시작해야 합니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{70C91051-55C4-4C79-91DF-B0A4E444E23D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>박동진 : cost_range를 입력할 때, 행이름과 열이름이 만나는 이 셀에서부터 시작해야 합니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{653D6CEC-575A-490C-AB85-39518DD6565D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>박동진 : 비용 테이블과 가치 테이블의 아이템 순서가 동일해야 합니다.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
   <si>
@@ -190,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +255,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -250,6 +309,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,11 +577,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +627,7 @@
         <v>47</v>
       </c>
       <c r="T1" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -611,54 +674,54 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:C22" ca="1" si="0">C3+0.01*RAND()</f>
-        <v>1.3475376880207416E-2</v>
+        <v>7.7387571849158098E-3</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2121682892695218E-2</v>
+        <v>4.0165019358035835E-3</v>
       </c>
       <c r="D3" s="2">
         <f ca="1">RAND() * 0.01</f>
-        <v>5.4017197180315909E-3</v>
+        <v>2.0060160863558684E-3</v>
       </c>
       <c r="E3" s="2">
         <f ca="1">F3*(4+RAND()*4)</f>
-        <v>12.750821686597593</v>
+        <v>33.827819107892559</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">G3+15*RAND()</f>
-        <v>2.0564688824432471</v>
+        <v>7.9070102520668808</v>
       </c>
       <c r="G3" s="2">
         <f ca="1">5*RAND()</f>
-        <v>0.66736014179100744</v>
+        <v>3.3305138297697501</v>
       </c>
       <c r="H3" s="1">
-        <f ca="1">I3+RAND()*200</f>
-        <v>1179.4476938852754</v>
+        <f ca="1">I3+(RAND()+5)*200</f>
+        <v>3173.137812282685</v>
       </c>
       <c r="I3" s="1">
-        <f ca="1">J3+RAND()*200</f>
-        <v>1102.5429223986157</v>
+        <f ca="1">J3+(RAND()+5)*200</f>
+        <v>2139.9271799035541</v>
       </c>
       <c r="J3" s="1">
         <f ca="1">800+RAND()*200</f>
-        <v>975.7325033065415</v>
+        <v>966.78734311320829</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O3" s="1">
-        <f ca="1">P3+RAND() *$T$1</f>
-        <v>2256.7426731635255</v>
+        <f ca="1">P3+(RAND() + 2) *$T$1</f>
+        <v>467.46851997516012</v>
       </c>
       <c r="P3" s="1">
-        <f ca="1">Q3+RAND() *$T$1</f>
-        <v>1741.5034592648246</v>
+        <f ca="1">Q3+(RAND() + 2) *$T$1</f>
+        <v>261.43955602462057</v>
       </c>
       <c r="Q3" s="1">
         <f ca="1">$T$1*RAND()</f>
-        <v>908.54837073923716</v>
+        <v>44.147477885323916</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -667,54 +730,54 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2985380557182492E-2</v>
+        <v>2.0458134473079845E-2</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8131295527952976E-3</v>
+        <v>1.7814231894828718E-2</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D42" ca="1" si="1">RAND() * 0.01</f>
-        <v>5.9720343872165221E-3</v>
+        <v>9.9326401331170638E-3</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ref="E4:E42" ca="1" si="2">F4*(4+RAND()*4)</f>
-        <v>71.633393423508451</v>
+        <v>82.474781612844851</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ref="F4:F42" ca="1" si="3">G4+15*RAND()</f>
-        <v>11.183663874187221</v>
+        <v>11.242760422445087</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ref="G4:G42" ca="1" si="4">5*RAND()</f>
-        <v>3.8919229275240692</v>
+        <v>2.3605138550182678</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:I4" ca="1" si="5">I4+RAND()*200</f>
-        <v>948.99256008056864</v>
+        <f t="shared" ref="H4:I4" ca="1" si="5">I4+(RAND()+5)*200</f>
+        <v>3028.5698938170781</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>845.89126499940539</v>
+        <v>1946.7315851215581</v>
       </c>
       <c r="J4" s="1">
-        <f ca="1">800+RAND()*200</f>
-        <v>833.00937550941512</v>
+        <f t="shared" ref="J4:J42" ca="1" si="6">800+RAND()*200</f>
+        <v>877.4964762317145</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" ref="O4:O42" ca="1" si="6">P4+RAND() *$T$1</f>
-        <v>2088.0609129809095</v>
+        <f t="shared" ref="O4:P4" ca="1" si="7">P4+(RAND() + 2) *$T$1</f>
+        <v>504.98766312156249</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" ref="P4:P42" ca="1" si="7">Q4+RAND() *$T$1</f>
-        <v>1343.6994906686273</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>287.69754136847587</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" ref="Q4:Q42" ca="1" si="8">$T$1*RAND()</f>
-        <v>974.84104591866105</v>
+        <v>16.452087766725565</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -723,54 +786,54 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0018317367564986E-2</v>
+        <v>1.3442570114130057E-2</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4617371870589119E-2</v>
+        <v>9.6398117199294874E-3</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2755154532171624E-3</v>
+        <v>3.3730527567191471E-3</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>66.652296109583858</v>
+        <v>128.54933205905775</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.72619548760534</v>
+        <v>17.96925618966252</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27987468234644874</v>
+        <v>4.4260775875065947</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:I5" ca="1" si="9">I5+RAND()*200</f>
-        <v>1213.4035581785688</v>
+        <f t="shared" ref="H5:I5" ca="1" si="9">I5+(RAND()+5)*200</f>
+        <v>3043.6722901367057</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1034.4865810969125</v>
+        <v>2012.0160431503764</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:J42" ca="1" si="10">800+RAND()*200</f>
-        <v>946.84961157141947</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>814.15667755769925</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>2818.5200833356671</v>
+        <f t="shared" ref="O5:P5" ca="1" si="10">P5+(RAND() + 2) *$T$1</f>
+        <v>536.46121308428178</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1831.2126852734873</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>257.90242313909755</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>974.22057840687239</v>
+        <v>7.3546695552346719</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -779,54 +842,54 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2074825734934553E-3</v>
+        <v>8.2085145243703077E-3</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4721102567001651E-3</v>
+        <v>7.119928982337511E-3</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2884887035885746E-3</v>
+        <v>2.3764407702200497E-3</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45.365931885268395</v>
+        <v>38.049644594239574</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1659249300484911</v>
+        <v>5.6433375199494833</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9907119691426907</v>
+        <v>1.1534673987826634</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ref="H6:I6" ca="1" si="11">I6+RAND()*200</f>
-        <v>1014.9339643427066</v>
+        <f t="shared" ref="H6:I6" ca="1" si="11">I6+(RAND()+5)*200</f>
+        <v>2972.3886470019306</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>978.96245955002792</v>
+        <v>1833.9298517955128</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>964.13520651581575</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>818.7985337261814</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1879.723461750872</v>
+        <f t="shared" ref="O6:P6" ca="1" si="12">P6+(RAND() + 2) *$T$1</f>
+        <v>480.63550904024942</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1146.0448779156034</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>266.26572618669815</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>282.78210453985452</v>
+        <v>50.504402247945833</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -835,54 +898,54 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2014399306790411E-2</v>
+        <v>1.3321162571874871E-2</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2216047413794325E-3</v>
+        <v>6.5906979494786775E-3</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6774504737146651E-4</v>
+        <v>5.6507548400832166E-4</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.074148724009419</v>
+        <v>122.09699199934056</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0986843674766904</v>
+        <v>15.557515284756734</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45693752908187946</v>
+        <v>3.98791844163725</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:I7" ca="1" si="12">I7+RAND()*200</f>
-        <v>1054.1649998239282</v>
+        <f t="shared" ref="H7:I7" ca="1" si="13">I7+(RAND()+5)*200</f>
+        <v>3190.0433672670488</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>1026.3800886503027</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2003.1890348418237</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>827.79340803488321</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>845.96984420171623</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>2599.2759345004838</v>
+        <f t="shared" ref="O7:P7" ca="1" si="14">P7+(RAND() + 2) *$T$1</f>
+        <v>561.0933862244616</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1675.4057730741579</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>340.97613873218404</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>834.80572115261657</v>
+        <v>74.538455018730161</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -891,54 +954,54 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6863512263121862E-2</v>
+        <v>1.3409410450746735E-2</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6264340191204554E-2</v>
+        <v>4.8681006176932032E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3514548008113594E-3</v>
+        <v>3.8042345255983856E-3</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10.74483165693821</v>
+        <v>9.480713882237616</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6789216122567729</v>
+        <v>2.0420278898171116</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.55516229218345E-2</v>
+        <v>1.6504453421671843</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ref="H8:I8" ca="1" si="13">I8+RAND()*200</f>
-        <v>1121.4450266865788</v>
+        <f t="shared" ref="H8:I8" ca="1" si="15">I8+(RAND()+5)*200</f>
+        <v>3058.7038185685833</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>1048.4007601924961</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1881.6238104723388</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>937.81337964059139</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>815.08867003258467</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>2494.6338295814598</v>
+        <f t="shared" ref="O8:P8" ca="1" si="16">P8+(RAND() + 2) *$T$1</f>
+        <v>536.05980909034906</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1827.8975537640854</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>332.03859901765725</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>988.12847718081059</v>
+        <v>64.433716305358544</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -947,54 +1010,54 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2065508369930238E-2</v>
+        <v>1.8628053257466391E-2</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0585055980076699E-3</v>
+        <v>1.2371638509570721E-2</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5077604132716665E-3</v>
+        <v>6.4171496294767837E-3</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>71.088306664637827</v>
+        <v>35.920541136447945</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.9425070813957621</v>
+        <v>4.9843862933373355</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3.0616885292158487</v>
+        <v>4.6995695194487137</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" ref="H9:I9" ca="1" si="14">I9+RAND()*200</f>
-        <v>983.55517554385699</v>
+        <f t="shared" ref="H9:I9" ca="1" si="17">I9+(RAND()+5)*200</f>
+        <v>3079.8896883948842</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>836.9761308702939</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>2037.974546218622</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>834.37887293559231</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>872.85582472278008</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1454.5297284565117</v>
+        <f t="shared" ref="O9:P9" ca="1" si="18">P9+(RAND() + 2) *$T$1</f>
+        <v>528.24076637256167</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1234.9359102137641</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>268.75890414684068</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>752.59337442980279</v>
+        <v>14.777959633956161</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1003,54 +1066,54 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9554923366468317E-3</v>
+        <v>8.6863628067841564E-3</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2757070705425797E-3</v>
+        <v>8.1960745704802128E-3</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9564313142638556E-3</v>
+        <v>6.3695350746940009E-3</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>66.090657267695377</v>
+        <v>30.995830304683132</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4095798093112499</v>
+        <v>6.934285271079438</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3.9019269363173539</v>
+        <v>0.61485505812365504</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" ref="H10:I10" ca="1" si="15">I10+RAND()*200</f>
-        <v>1153.3947402883898</v>
+        <f t="shared" ref="H10:I10" ca="1" si="19">I10+(RAND()+5)*200</f>
+        <v>3169.8429773992293</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1024.2956906489774</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>2069.6469736564331</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>869.43067866431431</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>923.50699049822401</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1849.5348497611294</v>
+        <f t="shared" ref="O10:P10" ca="1" si="20">P10+(RAND() + 2) *$T$1</f>
+        <v>506.54800463661672</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1031.9199084486734</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>271.28982370430822</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>364.55428181657368</v>
+        <v>65.280562299590201</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1059,54 +1122,54 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.316393279123408E-2</v>
+        <v>1.524026149933044E-2</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8390469233726523E-3</v>
+        <v>5.9336746436181821E-3</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8205374690034465E-3</v>
+        <v>3.9892188711076757E-3</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>63.750893028587541</v>
+        <v>17.353072728166818</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>13.630776657264942</v>
+        <v>2.52515165425348</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.0840743540760096</v>
+        <v>2.2720643560407461</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" ref="H11:I11" ca="1" si="16">I11+RAND()*200</f>
-        <v>1096.93152658447</v>
+        <f t="shared" ref="H11:I11" ca="1" si="21">I11+(RAND()+5)*200</f>
+        <v>3059.5407111297982</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>1006.5394064464183</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>1961.4140943036864</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>985.71674535586362</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>923.06145624832925</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>299.65998358744503</v>
+        <f t="shared" ref="O11:P11" ca="1" si="22">P11+(RAND() + 2) *$T$1</f>
+        <v>495.27815262758685</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>192.95769697054521</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>253.91757396269767</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>122.09136022332412</v>
+        <v>1.9448955425282577</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1115,54 +1178,54 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.591942966592865E-2</v>
+        <v>1.2768812672393066E-2</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7246173180776054E-2</v>
+        <v>1.1504283828160137E-2</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9936024093365203E-3</v>
+        <v>5.7802747273630432E-3</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>81.789499070179176</v>
+        <v>51.053542171760036</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>14.435818029955893</v>
+        <v>8.5501995769250883</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5443482471116097</v>
+        <v>0.72084694600546007</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" ref="H12:I12" ca="1" si="17">I12+RAND()*200</f>
-        <v>884.12771089985529</v>
+        <f t="shared" ref="H12:I12" ca="1" si="23">I12+(RAND()+5)*200</f>
+        <v>3160.6574098452043</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>870.57917778821388</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>2081.043692746458</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>822.02040510324491</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>895.42463470798782</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1894.1943075522895</v>
+        <f t="shared" ref="O12:P12" ca="1" si="24">P12+(RAND() + 2) *$T$1</f>
+        <v>653.52538774866503</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1428.0534980609252</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>354.74171688228591</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>960.64676183918039</v>
+        <v>98.248779918298496</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1171,54 +1234,54 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1627690175966691E-2</v>
+        <v>1.0850043270374475E-2</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5348286184781049E-2</v>
+        <v>6.2914465289591499E-3</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0514028082932596E-3</v>
+        <v>2.5544891661723637E-3</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.690259101904584</v>
+        <v>85.983047530684431</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5971088458731622</v>
+        <v>10.979505553459756</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3.9288127779857227</v>
+        <v>1.0103915768480087</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" ref="H13:I13" ca="1" si="18">I13+RAND()*200</f>
-        <v>1223.8317263949668</v>
+        <f t="shared" ref="H13:I13" ca="1" si="25">I13+(RAND()+5)*200</f>
+        <v>3117.0432685776077</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1042.1863405199181</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>1924.9434802278308</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>964.63909738300299</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>869.0651702377063</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>2451.268997020783</v>
+        <f t="shared" ref="O13:P13" ca="1" si="26">P13+(RAND() + 2) *$T$1</f>
+        <v>509.14895769773631</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1620.1833075605389</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>295.73942594417099</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>675.31543562802415</v>
+        <v>51.29082737643175</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1227,54 +1290,54 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8198251456801266E-2</v>
+        <v>1.9997077170553792E-2</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5087193154812637E-2</v>
+        <v>1.6114323941064771E-2</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4126270014410589E-3</v>
+        <v>9.4156573048003612E-3</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>60.062803135480159</v>
+        <v>73.584537598599795</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.000149415550107</v>
+        <v>12.114866163401976</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3.6677486995739095</v>
+        <v>0.80151528399796279</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" ref="H14:I14" ca="1" si="19">I14+RAND()*200</f>
-        <v>952.72214587451685</v>
+        <f t="shared" ref="H14:I14" ca="1" si="27">I14+(RAND()+5)*200</f>
+        <v>3196.6014996799749</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" ca="1" si="19"/>
-        <v>921.47892633949675</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>2172.5240752302107</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>876.84985444178005</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>994.86731479368439</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1341.8321954657793</v>
+        <f t="shared" ref="O14:P14" ca="1" si="28">P14+(RAND() + 2) *$T$1</f>
+        <v>490.81394036640728</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>866.89621125820145</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>239.81259576840512</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>168.41575815673261</v>
+        <v>28.247442065478111</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1283,54 +1346,54 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3343663996823104E-2</v>
+        <v>2.111374080053955E-2</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7585557515946641E-2</v>
+        <v>1.4582800959744936E-2</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6262048106152669E-3</v>
+        <v>7.3144243370136244E-3</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>89.006122495411418</v>
+        <v>31.275395871312458</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>14.033719326760014</v>
+        <v>5.871544918240132</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.79785798961926724</v>
+        <v>0.46958928589285798</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" ref="H15:I15" ca="1" si="20">I15+RAND()*200</f>
-        <v>1103.9182345843897</v>
+        <f t="shared" ref="H15:I15" ca="1" si="29">I15+(RAND()+5)*200</f>
+        <v>3180.4757700909749</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>922.75231526557832</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>2072.071369221329</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>889.43607432563704</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>899.24740741366497</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1719.4520127312971</v>
+        <f t="shared" ref="O15:P15" ca="1" si="30">P15+(RAND() + 2) *$T$1</f>
+        <v>520.26842580349717</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1073.6220028204598</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>286.49982604824913</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>907.48469002745958</v>
+        <v>85.899617256448863</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1339,54 +1402,54 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7942132318801707E-2</v>
+        <v>1.3559706498922089E-2</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6660942860627855E-2</v>
+        <v>7.2111422124574512E-3</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1530510468128953E-3</v>
+        <v>2.4038305652734904E-4</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>69.146966954941945</v>
+        <v>64.845181466081613</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.058088121052251</v>
+        <v>9.5662253537194673</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0210851011863733E-2</v>
+        <v>1.5700834437211675</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" ref="H16:I16" ca="1" si="21">I16+RAND()*200</f>
-        <v>1138.0543285031511</v>
+        <f t="shared" ref="H16:I16" ca="1" si="31">I16+(RAND()+5)*200</f>
+        <v>3134.9976363599199</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>1040.4317994086718</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>1996.1645441190656</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>911.93806333034263</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>843.48958400568449</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1306.2724119131435</v>
+        <f t="shared" ref="O16:P16" ca="1" si="32">P16+(RAND() + 2) *$T$1</f>
+        <v>584.77297616395788</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>743.48876141448227</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>353.98824847304081</v>
       </c>
       <c r="Q16" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>308.61537169122613</v>
+        <v>68.502576538820904</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1395,54 +1458,54 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4155739628422873E-2</v>
+        <v>1.5338737463216262E-2</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7733513202822169E-3</v>
+        <v>1.0062026924727605E-2</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0588824470965236E-3</v>
+        <v>1.6408869055107144E-3</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11.157625067864371</v>
+        <v>109.98977910808325</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5678074246260998</v>
+        <v>16.713401623532867</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2886944903715976</v>
+        <v>3.1657480285878452</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" ref="H17:I17" ca="1" si="22">I17+RAND()*200</f>
-        <v>1032.1558754611171</v>
+        <f t="shared" ref="H17:I17" ca="1" si="33">I17+(RAND()+5)*200</f>
+        <v>3049.0031017006804</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" ca="1" si="22"/>
-        <v>915.31362640444001</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>2010.9102871410328</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>824.0191619909707</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>895.95354497117091</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1727.8829421756889</v>
+        <f t="shared" ref="O17:P17" ca="1" si="34">P17+(RAND() + 2) *$T$1</f>
+        <v>633.29952983870407</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>976.01920174288398</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>360.84171321771879</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>591.06108714913807</v>
+        <v>90.002557501235955</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1451,54 +1514,54 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3616754756415407E-3</v>
+        <v>2.2827151033728565E-2</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.250790581236741E-3</v>
+        <v>1.3178620634647536E-2</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8200446171415132E-3</v>
+        <v>9.6977790598711793E-3</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>49.981083756555115</v>
+        <v>68.204876389348541</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3091950184124084</v>
+        <v>8.530983289598133</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10742143940408233</v>
+        <v>4.618920293970266</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" ref="H18:I18" ca="1" si="23">I18+RAND()*200</f>
-        <v>1226.0419175676782</v>
+        <f t="shared" ref="H18:I18" ca="1" si="35">I18+(RAND()+5)*200</f>
+        <v>3002.385317353348</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" ca="1" si="23"/>
-        <v>1065.6366648459746</v>
+        <f t="shared" ca="1" si="35"/>
+        <v>1913.5637140003064</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>998.40994926894621</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>885.56926225159839</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>771.74959815166392</v>
+        <f t="shared" ref="O18:P18" ca="1" si="36">P18+(RAND() + 2) *$T$1</f>
+        <v>523.72016186760538</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>674.32858179634036</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>304.20584309813438</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>377.53999979951271</v>
+        <v>51.780448389871125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1507,54 +1570,54 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0713751886371053E-2</v>
+        <v>1.5221818051821897E-2</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1744437136651625E-3</v>
+        <v>5.5595942757338621E-3</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0723143135572488E-3</v>
+        <v>4.2621080813731839E-3</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>76.59484806589515</v>
+        <v>25.754336017022126</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>14.367272927404334</v>
+        <v>3.3629380397841708</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3579239617794403</v>
+        <v>2.0158844170402226</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" ref="H19:I19" ca="1" si="24">I19+RAND()*200</f>
-        <v>1013.0862334479901</v>
+        <f t="shared" ref="H19:I19" ca="1" si="37">I19+(RAND()+5)*200</f>
+        <v>3055.3860752415994</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" ca="1" si="24"/>
-        <v>890.97838694313555</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>2000.4418944655949</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>890.95454562458565</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>902.05087298910541</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>2025.6343552776643</v>
+        <f t="shared" ref="O19:P19" ca="1" si="38">P19+(RAND() + 2) *$T$1</f>
+        <v>513.76333007179721</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1718.1137066626188</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>253.3399466668387</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>760.63496617478143</v>
+        <v>1.5801529795175129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -1563,54 +1626,54 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2060870168311097E-2</v>
+        <v>9.2169733431635356E-3</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3432352475695214E-2</v>
+        <v>4.233708942274499E-3</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4090568853917901E-3</v>
+        <v>3.4399343460942491E-3</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46.60865680931807</v>
+        <v>63.552289616620179</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.7402585946962219</v>
+        <v>8.4990238183945941</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1.833306030614581</v>
+        <v>0.51158837742315055</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ref="H20:I20" ca="1" si="25">I20+RAND()*200</f>
-        <v>1061.0409753765421</v>
+        <f t="shared" ref="H20:I20" ca="1" si="39">I20+(RAND()+5)*200</f>
+        <v>3081.0175947446569</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" ca="1" si="25"/>
-        <v>1021.4896776279953</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>2046.006818352037</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>927.58658515833122</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>889.44446345254528</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1104.7878581445407</v>
+        <f t="shared" ref="O20:P20" ca="1" si="40">P20+(RAND() + 2) *$T$1</f>
+        <v>573.3048727928367</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>937.21401264114047</v>
+        <f t="shared" ca="1" si="40"/>
+        <v>328.97958008442879</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>464.54767672254673</v>
+        <v>67.085386570206921</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -1619,54 +1682,54 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.188651200767936E-3</v>
+        <v>1.3137906713431506E-2</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2476453374782055E-3</v>
+        <v>1.1349750005778873E-2</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3222477742222084E-3</v>
+        <v>5.6198225989178598E-3</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>98.764953828162035</v>
+        <v>53.570220308639051</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.46264250414669</v>
+        <v>9.0724128209796771</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.1078660062662129</v>
+        <v>3.1879843778781174</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:I21" ca="1" si="26">I21+RAND()*200</f>
-        <v>1231.9601795221072</v>
+        <f t="shared" ref="H21:I21" ca="1" si="41">I21+(RAND()+5)*200</f>
+        <v>3018.9414005416911</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" ca="1" si="26"/>
-        <v>1112.5705795142133</v>
+        <f t="shared" ca="1" si="41"/>
+        <v>1845.9679425623369</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>918.80611662081355</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>808.73025711256787</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>634.76196157500317</v>
+        <f t="shared" ref="O21:P21" ca="1" si="42">P21+(RAND() + 2) *$T$1</f>
+        <v>526.71804874502698</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>367.41185138041573</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>296.58219749525205</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>314.56114973822156</v>
+        <v>20.574107162285461</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -1675,54 +1738,54 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6089322586060915E-2</v>
+        <v>1.6396878467267055E-2</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.448793433530789E-3</v>
+        <v>1.1478474388389828E-2</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7064326159320097E-4</v>
+        <v>9.4227182777724561E-3</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>29.677201002111854</v>
+        <v>38.331718657676028</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0104546563767922</v>
+        <v>5.3560917590175334</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8047985728537257</v>
+        <v>1.1717196708446149</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" ref="H22:I22" ca="1" si="27">I22+RAND()*200</f>
-        <v>1071.6514168243355</v>
+        <f t="shared" ref="H22:I22" ca="1" si="43">I22+(RAND()+5)*200</f>
+        <v>3130.8040843855124</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ca="1" si="27"/>
-        <v>961.95340298753104</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>2044.5350513916774</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>866.83084059018415</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>961.48239018679021</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>2353.1289992844395</v>
+        <f t="shared" ref="O22:P22" ca="1" si="44">P22+(RAND() + 2) *$T$1</f>
+        <v>553.07923596602427</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1426.7580032541036</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>283.42342257140785</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>487.30331285982811</v>
+        <v>20.778115993258695</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -1730,55 +1793,55 @@
         <v>20</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" ref="B23:C42" ca="1" si="28">C23+0.01*RAND()</f>
-        <v>1.5091388002567404E-2</v>
+        <f t="shared" ref="B23:C42" ca="1" si="45">C23+0.01*RAND()</f>
+        <v>1.3425907882782653E-2</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.1779187220227444E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>1.1623026067207456E-2</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3980143986968286E-3</v>
+        <v>6.1198843286601216E-3</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>61.06545289189944</v>
+        <v>116.5010842150223</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.9528594654442717</v>
+        <v>15.594382903953612</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2.3247668534093502</v>
+        <v>2.8265542164363149</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" ref="H23:I23" ca="1" si="29">I23+RAND()*200</f>
-        <v>1126.3191061906027</v>
+        <f t="shared" ref="H23:I23" ca="1" si="46">I23+(RAND()+5)*200</f>
+        <v>3019.2925577511378</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" ca="1" si="29"/>
-        <v>950.46806843916193</v>
+        <f t="shared" ca="1" si="46"/>
+        <v>1929.732363491335</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>901.94542541076692</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>845.87162472628575</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1440.4293476031719</v>
+        <f t="shared" ref="O23:P23" ca="1" si="47">P23+(RAND() + 2) *$T$1</f>
+        <v>624.66414223450624</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>694.52306344791077</v>
+        <f t="shared" ca="1" si="47"/>
+        <v>367.02941525107434</v>
       </c>
       <c r="Q23" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>348.75419306831787</v>
+        <v>73.007275953574265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -1786,55 +1849,55 @@
         <v>21</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.0814299612544554E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>3.9501514616809286E-3</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>3.2745373099323928E-3</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>2.4246086383318778E-3</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0366571006912105E-4</v>
+        <v>2.268983268865158E-3</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>101.24043826239034</v>
+        <v>31.718076029160844</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.441221825614553</v>
+        <v>6.2501556836248557</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3.3192782773225815</v>
+        <v>0.74878533145392945</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" ref="H24:I24" ca="1" si="30">I24+RAND()*200</f>
-        <v>1215.1898656956807</v>
+        <f t="shared" ref="H24:I24" ca="1" si="48">I24+(RAND()+5)*200</f>
+        <v>3139.4697167904392</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" ca="1" si="30"/>
-        <v>1035.5738127106649</v>
+        <f t="shared" ca="1" si="48"/>
+        <v>1943.180572912227</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>943.35275227840498</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>819.68433190209691</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1660.1511437003196</v>
+        <f t="shared" ref="O24:P24" ca="1" si="49">P24+(RAND() + 2) *$T$1</f>
+        <v>462.45201239744023</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1563.2787416654437</v>
+        <f t="shared" ca="1" si="49"/>
+        <v>241.4419772750266</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>635.37940353861438</v>
+        <v>6.1716260075939333</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -1842,55 +1905,55 @@
         <v>22</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.3905997656226621E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>2.3577767562799508E-2</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>6.980100595798888E-3</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>1.3766916628278562E-2</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5859897585941419E-3</v>
+        <v>8.0693421672144456E-3</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>90.965544774804727</v>
+        <v>49.152570028854022</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>13.030693681765285</v>
+        <v>10.054524268137586</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3.7385511370214015</v>
+        <v>3.3769762525018225</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="H25:I25" ca="1" si="31">I25+RAND()*200</f>
-        <v>1126.3387461609127</v>
+        <f t="shared" ref="H25:I25" ca="1" si="50">I25+(RAND()+5)*200</f>
+        <v>3096.2346686227634</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" ca="1" si="31"/>
-        <v>976.85259507603087</v>
+        <f t="shared" ca="1" si="50"/>
+        <v>1900.4755142242661</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>818.31031427506389</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>847.39577741071218</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>2417.1201642418418</v>
+        <f t="shared" ref="O25:P25" ca="1" si="51">P25+(RAND() + 2) *$T$1</f>
+        <v>550.28464488438692</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1548.6437257838579</v>
+        <f t="shared" ca="1" si="51"/>
+        <v>315.47557481326521</v>
       </c>
       <c r="Q25" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>935.27980597427324</v>
+        <v>23.967867329773885</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -1898,55 +1961,55 @@
         <v>23</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.8364841190510454E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>8.5145793843103505E-3</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.5830919352067232E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>3.4288777689207785E-3</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8781711225900759E-3</v>
+        <v>3.0377645454902858E-3</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>68.176537212367847</v>
+        <v>75.435850805698067</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.080123981886318</v>
+        <v>9.6863738497453014</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3.7124265135029537</v>
+        <v>0.67828920068761234</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" ref="H26:I26" ca="1" si="32">I26+RAND()*200</f>
-        <v>1073.0358046916963</v>
+        <f t="shared" ref="H26:I26" ca="1" si="52">I26+(RAND()+5)*200</f>
+        <v>3055.7363778197332</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" ca="1" si="32"/>
-        <v>908.03410509109051</v>
+        <f t="shared" ca="1" si="52"/>
+        <v>2002.4256999881691</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>810.09910501878073</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>905.80156899024894</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>2560.3197365061847</v>
+        <f t="shared" ref="O26:P26" ca="1" si="53">P26+(RAND() + 2) *$T$1</f>
+        <v>565.16326779204906</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1638.875373126974</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>344.45432279299985</v>
       </c>
       <c r="Q26" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>836.48326825219135</v>
+        <v>96.470690051818849</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -1954,55 +2017,55 @@
         <v>24</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.3700699974004169E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>1.5930508264258077E-2</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.1518329827213732E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>1.123616173762512E-2</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1713883090754222E-3</v>
+        <v>3.8316018845654409E-3</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.945852879228212</v>
+        <v>73.535135908305179</v>
       </c>
       <c r="F27" s="2">
         <f ca="1">G27+15*RAND()</f>
-        <v>6.6918221036087502</v>
+        <v>11.642053145487699</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3.4900826765049677</v>
+        <v>0.85312618336614132</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" ref="H27:I27" ca="1" si="33">I27+RAND()*200</f>
-        <v>1095.0534377569325</v>
+        <f t="shared" ref="H27:I27" ca="1" si="54">I27+(RAND()+5)*200</f>
+        <v>3178.2531026970582</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ca="1" si="33"/>
-        <v>1009.086966265445</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>2177.6243760500656</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>921.29107313950828</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>994.09785341431825</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1473.2565706887058</v>
+        <f t="shared" ref="O27:P27" ca="1" si="55">P27+(RAND() + 2) *$T$1</f>
+        <v>515.93192965970536</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1235.1949219536205</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>283.00819832269241</v>
       </c>
       <c r="Q27" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>606.9839700323131</v>
+        <v>15.432864666763123</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -2010,55 +2073,55 @@
         <v>25</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.3078272405343053E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>1.5986173245841881E-2</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.0412856196699452E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>8.7732612922821369E-3</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6786132119680975E-3</v>
+        <v>1.2583256374230833E-3</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>92.126993655448729</v>
+        <v>86.555417171908871</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.663175714286304</v>
+        <v>13.479961038098109</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3520213154453735</v>
+        <v>0.97374140357299688</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" ref="H28:I28" ca="1" si="34">I28+RAND()*200</f>
-        <v>1023.3337805732102</v>
+        <f t="shared" ref="H28:I28" ca="1" si="56">I28+(RAND()+5)*200</f>
+        <v>3123.9428373753467</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" ca="1" si="34"/>
-        <v>990.40549956114739</v>
+        <f t="shared" ca="1" si="56"/>
+        <v>2018.9051616830711</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>979.42224303309376</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>900.97011823802336</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1682.7765954287695</v>
+        <f t="shared" ref="O28:P28" ca="1" si="57">P28+(RAND() + 2) *$T$1</f>
+        <v>612.69768635369837</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>988.53750290059611</v>
+        <f t="shared" ca="1" si="57"/>
+        <v>333.96602647391853</v>
       </c>
       <c r="Q28" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>609.82721433202937</v>
+        <v>64.408538357265314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -2066,55 +2129,55 @@
         <v>26</v>
       </c>
       <c r="B29" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.1142652569947321E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>2.0658577995591527E-2</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.0054711895008703E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>1.3469853688411193E-2</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4946410553102283E-3</v>
+        <v>3.982545341892324E-3</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>79.043113588731373</v>
+        <v>15.081082751751811</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.042896480432301</v>
+        <v>2.3485909837365231</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3.9800327575591292</v>
+        <v>1.9600307042206704</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" ref="H29:I29" ca="1" si="35">I29+RAND()*200</f>
-        <v>1269.7596124810175</v>
+        <f t="shared" ref="H29:I29" ca="1" si="58">I29+(RAND()+5)*200</f>
+        <v>3108.6936241555372</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" ca="1" si="35"/>
-        <v>1115.7746962955314</v>
+        <f t="shared" ca="1" si="58"/>
+        <v>1958.3949171029237</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>935.50529255398374</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>875.50005859598627</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1373.0429079044054</v>
+        <f t="shared" ref="O29:P29" ca="1" si="59">P29+(RAND() + 2) *$T$1</f>
+        <v>501.47770610219379</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1268.1769119456412</v>
+        <f t="shared" ca="1" si="59"/>
+        <v>274.34004600338841</v>
       </c>
       <c r="Q29" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>798.05910746535108</v>
+        <v>72.02414321971348</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -2122,55 +2185,55 @@
         <v>27</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.752563939855583E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>1.741338250320169E-2</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.1548553550700226E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>1.3411642996070835E-2</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.761010638276486E-3</v>
+        <v>6.4043387571749042E-3</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>70.828169162612184</v>
+        <v>14.536747285679931</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.524795416424734</v>
+        <v>3.5766370291948442</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8123575578058357</v>
+        <v>0.12195478533026716</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" ref="H30:I30" ca="1" si="36">I30+RAND()*200</f>
-        <v>1114.9785180175018</v>
+        <f t="shared" ref="H30:I30" ca="1" si="60">I30+(RAND()+5)*200</f>
+        <v>2926.7736703249111</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" ca="1" si="36"/>
-        <v>1071.7635881221402</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>1917.8777102610056</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>968.82854045500653</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>848.07935579450998</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>2576.1756205311572</v>
+        <f t="shared" ref="O30:P30" ca="1" si="61">P30+(RAND() + 2) *$T$1</f>
+        <v>574.77358757767195</v>
       </c>
       <c r="P30" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1604.8775740170192</v>
+        <f t="shared" ca="1" si="61"/>
+        <v>347.6851227642174</v>
       </c>
       <c r="Q30" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>954.78122744085442</v>
+        <v>77.621134453585157</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -2178,55 +2241,55 @@
         <v>28</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.0676493499649472E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>1.256060528013658E-2</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>8.1830232551213765E-3</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>5.4990813869554185E-3</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2126116865623436E-3</v>
+        <v>3.6205592521538201E-3</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>34.440369905262429</v>
+        <v>36.210468095472301</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8297161918242333</v>
+        <v>8.4974828338788697</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2749498970340711</v>
+        <v>3.3087248426142408</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" ref="H31:I31" ca="1" si="37">I31+RAND()*200</f>
-        <v>1350.4328673480559</v>
+        <f t="shared" ref="H31:I31" ca="1" si="62">I31+(RAND()+5)*200</f>
+        <v>3134.3350112967491</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" ca="1" si="37"/>
-        <v>1153.1949939786141</v>
+        <f t="shared" ca="1" si="62"/>
+        <v>2016.9398642825574</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>956.01257232851901</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>964.69616154354435</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1911.7566833998681</v>
+        <f t="shared" ref="O31:P31" ca="1" si="63">P31+(RAND() + 2) *$T$1</f>
+        <v>564.72326388904162</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1073.9620257028873</v>
+        <f t="shared" ca="1" si="63"/>
+        <v>326.62540828312024</v>
       </c>
       <c r="Q31" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>220.92204566856543</v>
+        <v>42.685368315283725</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -2234,55 +2297,55 @@
         <v>29</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.8481677447942178E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>1.8764977614447006E-2</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.5069936660779135E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>1.0659412345338464E-2</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6154306422307333E-3</v>
+        <v>7.3533526289893091E-3</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>90.023595490998062</v>
+        <v>28.649387947417502</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.778786097843989</v>
+        <v>3.7354175701159624</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2.6605949066212049</v>
+        <v>3.017793305817817</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" ref="H32:I32" ca="1" si="38">I32+RAND()*200</f>
-        <v>1085.079832689182</v>
+        <f t="shared" ref="H32:I32" ca="1" si="64">I32+(RAND()+5)*200</f>
+        <v>3070.4990741904076</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" ca="1" si="38"/>
-        <v>1031.5109012720395</v>
+        <f t="shared" ca="1" si="64"/>
+        <v>2029.173184185413</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>972.77119746648964</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>876.51366466651655</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1855.5047799562608</v>
+        <f t="shared" ref="O32:P32" ca="1" si="65">P32+(RAND() + 2) *$T$1</f>
+        <v>537.44339459640582</v>
       </c>
       <c r="P32" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1540.4687252009721</v>
+        <f t="shared" ca="1" si="65"/>
+        <v>280.37634098288936</v>
       </c>
       <c r="Q32" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>991.65243527484745</v>
+        <v>42.036721892129535</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -2290,55 +2353,55 @@
         <v>30</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.6683017364866479E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>1.9629345754753509E-2</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.2560447777852056E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>1.1067140279640396E-2</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7525529312858706E-3</v>
+        <v>7.2975944581313325E-3</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>51.681466352295757</v>
+        <v>75.101959959716382</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3317392791974534</v>
+        <v>11.92563536962817</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3.0261971673259449</v>
+        <v>3.1922891141019178</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" ref="H33:I33" ca="1" si="39">I33+RAND()*200</f>
-        <v>1150.2423913744824</v>
+        <f t="shared" ref="H33:I33" ca="1" si="66">I33+(RAND()+5)*200</f>
+        <v>3226.3000449593274</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" ca="1" si="39"/>
-        <v>953.94286308111657</v>
+        <f t="shared" ca="1" si="66"/>
+        <v>2048.5363500714893</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>865.36128958052279</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>980.63441205770982</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>898.6186394533313</v>
+        <f t="shared" ref="O33:P33" ca="1" si="67">P33+(RAND() + 2) *$T$1</f>
+        <v>509.37057945766696</v>
       </c>
       <c r="P33" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>355.73048590287118</v>
+        <f t="shared" ca="1" si="67"/>
+        <v>293.367787081144</v>
       </c>
       <c r="Q33" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>186.51549789398382</v>
+        <v>72.028195954359461</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -2346,55 +2409,55 @@
         <v>31</v>
       </c>
       <c r="B34" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.5768292407510941E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>2.195132803050669E-2</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.1253946525759177E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>1.6518084022439077E-2</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5992203981335021E-3</v>
+        <v>9.7826784638215467E-3</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>29.300586605594173</v>
+        <v>50.945404040098147</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4490955789234432</v>
+        <v>8.0053408432365973</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2.3701634493836812</v>
+        <v>2.4878551035686285</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" ref="H34:I34" ca="1" si="40">I34+RAND()*200</f>
-        <v>1171.6071140932772</v>
+        <f t="shared" ref="H34:I34" ca="1" si="68">I34+(RAND()+5)*200</f>
+        <v>3220.1568627522743</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" ca="1" si="40"/>
-        <v>1159.9887660053844</v>
+        <f t="shared" ca="1" si="68"/>
+        <v>2125.2492940975153</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>970.18890035524896</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>975.89300261775406</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1270.9735926945141</v>
+        <f t="shared" ref="O34:P34" ca="1" si="69">P34+(RAND() + 2) *$T$1</f>
+        <v>633.97347894254608</v>
       </c>
       <c r="P34" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>748.69447068230852</v>
+        <f t="shared" ca="1" si="69"/>
+        <v>346.96456553189205</v>
       </c>
       <c r="Q34" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>454.23229269450161</v>
+        <v>93.289910061036991</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -2402,55 +2465,55 @@
         <v>32</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>2.4385329709957271E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>7.7691236247097555E-3</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.6776560290170727E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>7.7265502455482844E-3</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0867639481176142E-3</v>
+        <v>3.1254587359860666E-3</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>109.65275807124308</v>
+        <v>67.4131142647649</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>14.577186385577587</v>
+        <v>10.29782388378961</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2327063304222614</v>
+        <v>1.1227696929581228</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" ref="H35:I35" ca="1" si="41">I35+RAND()*200</f>
-        <v>1090.2515112796752</v>
+        <f t="shared" ref="H35:I35" ca="1" si="70">I35+(RAND()+5)*200</f>
+        <v>3096.5962093234898</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" ca="1" si="41"/>
-        <v>989.46843898642908</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>1988.6431230131029</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>896.21110461285366</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>800.82527850790052</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>32</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1579.9003278235009</v>
+        <f t="shared" ref="O35:P35" ca="1" si="71">P35+(RAND() + 2) *$T$1</f>
+        <v>546.36230560940851</v>
       </c>
       <c r="P35" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1234.9055216021088</v>
+        <f t="shared" ca="1" si="71"/>
+        <v>252.34083852641101</v>
       </c>
       <c r="Q35" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>884.56089973504754</v>
+        <v>4.1113305269462108</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -2458,55 +2521,55 @@
         <v>33</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>2.7601537060325348E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>1.1407129533839948E-2</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.8704794367222208E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>1.1289012142998191E-2</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5907344474890997E-3</v>
+        <v>8.8315245430660369E-3</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>61.676435242355168</v>
+        <v>86.63902300258529</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1243373579953584</v>
+        <v>17.380540643074792</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3341869811323419</v>
+        <v>4.9488609319162773</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" ref="H36:I36" ca="1" si="42">I36+RAND()*200</f>
-        <v>1056.6336385453155</v>
+        <f t="shared" ref="H36:I36" ca="1" si="72">I36+(RAND()+5)*200</f>
+        <v>3159.0838439665795</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" ca="1" si="42"/>
-        <v>898.49508566574968</v>
+        <f t="shared" ca="1" si="72"/>
+        <v>2040.1844595547473</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>886.38339920599196</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>950.41225204833688</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1453.7647897354698</v>
+        <f t="shared" ref="O36:P36" ca="1" si="73">P36+(RAND() + 2) *$T$1</f>
+        <v>562.09829609509109</v>
       </c>
       <c r="P36" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1097.4670802456526</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>274.3903242970573</v>
       </c>
       <c r="Q36" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>104.90376076032548</v>
+        <v>68.36844407775969</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -2514,55 +2577,55 @@
         <v>34</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.7037554644926726E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>2.2840452427566053E-2</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>9.2698873687702982E-3</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>1.3652526658140133E-2</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2116867460188383E-4</v>
+        <v>7.8443838144477192E-3</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>74.112875341198247</v>
+        <v>28.711917535775793</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.461088106281689</v>
+        <v>6.4425089465297667</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.1484682334031584</v>
+        <v>1.5363536795863575</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" ref="H37:I37" ca="1" si="43">I37+RAND()*200</f>
-        <v>1179.542283018345</v>
+        <f t="shared" ref="H37:I37" ca="1" si="74">I37+(RAND()+5)*200</f>
+        <v>3165.6261352166889</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" ca="1" si="43"/>
-        <v>1017.4372028071372</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>2044.4114165671076</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>831.10678450752425</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>959.22807319017272</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1039.5214275726917</v>
+        <f t="shared" ref="O37:P37" ca="1" si="75">P37+(RAND() + 2) *$T$1</f>
+        <v>588.68940163139644</v>
       </c>
       <c r="P37" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>975.64066375885375</v>
+        <f t="shared" ca="1" si="75"/>
+        <v>309.79785930456018</v>
       </c>
       <c r="Q37" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>200.67467614360578</v>
+        <v>84.099175476200145</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -2570,55 +2633,55 @@
         <v>35</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.9141485608516823E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>2.0421186153978792E-2</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.1607808843432415E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>1.3194598134579526E-2</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4198919586791965E-3</v>
+        <v>5.0635249287101216E-3</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>94.344349011097236</v>
+        <v>33.449130280634265</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.249696039477161</v>
+        <v>5.9551001488420088</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3.676239611474128</v>
+        <v>2.7159091020734034</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" ref="H38:I38" ca="1" si="44">I38+RAND()*200</f>
-        <v>1184.9962040592</v>
+        <f t="shared" ref="H38:I38" ca="1" si="76">I38+(RAND()+5)*200</f>
+        <v>3250.4306219924488</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" ca="1" si="44"/>
-        <v>1030.6162791049965</v>
+        <f t="shared" ca="1" si="76"/>
+        <v>2150.9330025432214</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>904.66030448929166</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>998.44645579208861</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>35</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1554.7990143216498</v>
+        <f t="shared" ref="O38:P38" ca="1" si="77">P38+(RAND() + 2) *$T$1</f>
+        <v>548.80402790237054</v>
       </c>
       <c r="P38" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1431.9132355563813</v>
+        <f t="shared" ca="1" si="77"/>
+        <v>259.99386006286278</v>
       </c>
       <c r="Q38" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>567.25947739723415</v>
+        <v>12.796915369672668</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -2626,55 +2689,55 @@
         <v>36</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.7891049949826182E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>9.9624491966006663E-3</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>8.8463141245532853E-3</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>8.8982787879653413E-3</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9303684825885976E-3</v>
+        <v>3.0977917522603429E-3</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>60.89252449314813</v>
+        <v>29.686735857012536</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.9808283511028932</v>
+        <v>7.1799512896165876</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9935307181259718</v>
+        <v>4.9256833827197068</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" ref="H39:I39" ca="1" si="45">I39+RAND()*200</f>
-        <v>1160.515836661973</v>
+        <f t="shared" ref="H39:I39" ca="1" si="78">I39+(RAND()+5)*200</f>
+        <v>3101.9269581741614</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" ca="1" si="45"/>
-        <v>1118.606107347817</v>
+        <f t="shared" ca="1" si="78"/>
+        <v>2013.7946390384855</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>978.21549846513653</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>825.63313830863126</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1991.9577767423239</v>
+        <f t="shared" ref="O39:P39" ca="1" si="79">P39+(RAND() + 2) *$T$1</f>
+        <v>597.04760136796619</v>
       </c>
       <c r="P39" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1351.8615153051505</v>
+        <f t="shared" ca="1" si="79"/>
+        <v>345.99255114270568</v>
       </c>
       <c r="Q39" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>514.14131879819138</v>
+        <v>92.453861734267278</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -2682,55 +2745,55 @@
         <v>37</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.7635988709686162E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>1.2589984252235842E-2</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.1866245163981565E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>4.7834176618209729E-3</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0888934323838567E-3</v>
+        <v>1.336802131184467E-4</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>63.854822952597281</v>
+        <v>63.796611507117184</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.836182066947931</v>
+        <v>10.439763967835525</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0093516773460225</v>
+        <v>0.22590660537659069</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" ref="H40:I40" ca="1" si="46">I40+RAND()*200</f>
-        <v>1043.3143442661735</v>
+        <f t="shared" ref="H40:I40" ca="1" si="80">I40+(RAND()+5)*200</f>
+        <v>3045.6460887995477</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" ca="1" si="46"/>
-        <v>989.16480717691786</v>
+        <f t="shared" ca="1" si="80"/>
+        <v>1997.3434564695835</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>976.21415972118007</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>928.14066515642048</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>37</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1432.2712202628068</v>
+        <f t="shared" ref="O40:P40" ca="1" si="81">P40+(RAND() + 2) *$T$1</f>
+        <v>497.49110241968413</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>943.94350365002379</v>
+        <f t="shared" ca="1" si="81"/>
+        <v>277.38099858149877</v>
       </c>
       <c r="Q40" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>220.46276758580717</v>
+        <v>20.561086478313161</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -2738,55 +2801,55 @@
         <v>38</v>
       </c>
       <c r="B41" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.496348329922181E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>1.1935519244050806E-2</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.4567821358177821E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>7.967318785373545E-3</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5409130550159031E-3</v>
+        <v>3.1889247112008101E-3</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>92.200823080789931</v>
+        <v>86.207922133079933</v>
       </c>
       <c r="F41" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.454253855183367</v>
+        <v>15.542816850714178</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8951131245704138</v>
+        <v>1.7960509170240098</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" ref="H41:I41" ca="1" si="47">I41+RAND()*200</f>
-        <v>996.43264066279482</v>
+        <f t="shared" ref="H41:I41" ca="1" si="82">I41+(RAND()+5)*200</f>
+        <v>2912.775573126627</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" ca="1" si="47"/>
-        <v>930.46886854701165</v>
+        <f t="shared" ca="1" si="82"/>
+        <v>1866.5199430647126</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>852.58021348038687</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>820.79589954097526</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1038.1646687905991</v>
+        <f t="shared" ref="O41:P41" ca="1" si="83">P41+(RAND() + 2) *$T$1</f>
+        <v>605.67939630713397</v>
       </c>
       <c r="P41" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>344.63962625515012</v>
+        <f t="shared" ca="1" si="83"/>
+        <v>350.97393371541148</v>
       </c>
       <c r="Q41" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>41.368615088848145</v>
+        <v>76.98759051464792</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -2794,55 +2857,55 @@
         <v>39</v>
       </c>
       <c r="B42" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>1.4255542379222795E-2</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>1.0289096572833075E-2</v>
       </c>
       <c r="C42" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>6.9748972229850981E-3</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>3.6050822469900945E-3</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5908140105509685E-3</v>
+        <v>3.2224312378032584E-3</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>40.29396839598737</v>
+        <v>25.415694110392788</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3803542752132358</v>
+        <v>4.7236815708285835</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.7399512003175133</v>
+        <v>0.49247738501758398</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" ref="H42:I42" ca="1" si="48">I42+RAND()*200</f>
-        <v>1320.8860367088309</v>
+        <f t="shared" ref="H42:I42" ca="1" si="84">I42+(RAND()+5)*200</f>
+        <v>3086.8269484296352</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" ca="1" si="48"/>
-        <v>1159.6424900403529</v>
+        <f t="shared" ca="1" si="84"/>
+        <v>2004.2418624475085</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>995.69272338631868</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>996.08189037731131</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>39</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>805.22110860006376</v>
+        <f t="shared" ref="O42:P42" ca="1" si="85">P42+(RAND() + 2) *$T$1</f>
+        <v>640.47801372627407</v>
       </c>
       <c r="P42" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>715.26622004399587</v>
+        <f t="shared" ca="1" si="85"/>
+        <v>349.84734358016487</v>
       </c>
       <c r="Q42" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>159.59835939638623</v>
+        <v>56.91871296515766</v>
       </c>
     </row>
   </sheetData>
@@ -2854,6 +2917,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
